--- a/xPathfiles.xlsx
+++ b/xPathfiles.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Documents\GitHub\Repo_Thirupathi\Repo_Thirupathi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D175BF7-20C3-4B6D-A41B-93D96D105207}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA5A0A9E-CD56-469E-8FE6-B8B627188A22}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{E1537F5A-B764-4D7C-AF04-0B42690AE50B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="105">
   <si>
     <t>website name</t>
   </si>
@@ -337,6 +337,9 @@
   </si>
   <si>
     <t>text box</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   </t>
   </si>
 </sst>
 </file>
@@ -707,10 +710,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4113DCB7-AADC-4C76-8A20-FC0EE4B158FD}">
-  <dimension ref="A1:D65"/>
+  <dimension ref="A1:D66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1338,6 +1341,11 @@
         <v>103</v>
       </c>
     </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>104</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C1" r:id="rId1" xr:uid="{4A3D876D-ACA3-458A-82CA-60884E016EB0}"/>

--- a/xPathfiles.xlsx
+++ b/xPathfiles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Documents\GitHub\Repo_Thirupathi\Repo_Thirupathi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA5A0A9E-CD56-469E-8FE6-B8B627188A22}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3004539D-5FB0-495A-96A9-BE30AFB847B5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{E1537F5A-B764-4D7C-AF04-0B42690AE50B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="135">
   <si>
     <t>website name</t>
   </si>
@@ -340,6 +340,96 @@
   </si>
   <si>
     <t xml:space="preserve">   </t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/</t>
+  </si>
+  <si>
+    <t>user Name textbox</t>
+  </si>
+  <si>
+    <t>//input[@type="text"]</t>
+  </si>
+  <si>
+    <t>Password textbox</t>
+  </si>
+  <si>
+    <t>//input[@name="pass"]</t>
+  </si>
+  <si>
+    <t>//button[@value="1"]</t>
+  </si>
+  <si>
+    <t>Forgot password</t>
+  </si>
+  <si>
+    <t>//a[text()="Forgotten password?"]</t>
+  </si>
+  <si>
+    <t>Create account button</t>
+  </si>
+  <si>
+    <t>//a[text()="Create new account"]</t>
+  </si>
+  <si>
+    <t>https://www.apsrtconline.in/</t>
+  </si>
+  <si>
+    <t>eTickect Login Button link</t>
+  </si>
+  <si>
+    <t>//a[@class="user"]</t>
+  </si>
+  <si>
+    <t>ATB/OPR Login button link</t>
+  </si>
+  <si>
+    <t>//a[text()="ATB/OPR Login"]</t>
+  </si>
+  <si>
+    <t>From textbox</t>
+  </si>
+  <si>
+    <t>//input[@id="fromPlaceName"]</t>
+  </si>
+  <si>
+    <t>To text box</t>
+  </si>
+  <si>
+    <t>//input[@name="destination"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Depart on </t>
+  </si>
+  <si>
+    <t>//input[@name="txtJourneyDate"]</t>
+  </si>
+  <si>
+    <t>For RoundTrip</t>
+  </si>
+  <si>
+    <t>//input[@class="calReturn hasDatepicker"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Availability </t>
+  </si>
+  <si>
+    <t>//input[@value="Check Availability"]</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>//input[@name="password"]</t>
+  </si>
+  <si>
+    <t>//input[@value="Login"]</t>
+  </si>
+  <si>
+    <t>Clear Buttton</t>
+  </si>
+  <si>
+    <t>//input[@onclick="clearForm();"]</t>
   </si>
 </sst>
 </file>
@@ -710,10 +800,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4113DCB7-AADC-4C76-8A20-FC0EE4B158FD}">
-  <dimension ref="A1:D66"/>
+  <dimension ref="A1:D92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B66" sqref="B66"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1336,20 +1426,232 @@
         <v>102</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>104</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>0</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="2"/>
+      <c r="B70" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>1</v>
+      </c>
+      <c r="B72" t="s">
+        <v>106</v>
+      </c>
+      <c r="C72" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>2</v>
+      </c>
+      <c r="B73" t="s">
+        <v>108</v>
+      </c>
+      <c r="C73" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>3</v>
+      </c>
+      <c r="B74" t="s">
+        <v>48</v>
+      </c>
+      <c r="C74" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>4</v>
+      </c>
+      <c r="B75" t="s">
+        <v>111</v>
+      </c>
+      <c r="C75" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>5</v>
+      </c>
+      <c r="B76" t="s">
+        <v>113</v>
+      </c>
+      <c r="C76" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>0</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="2"/>
+      <c r="B80" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>1</v>
+      </c>
+      <c r="B82" t="s">
+        <v>116</v>
+      </c>
+      <c r="C82" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>2</v>
+      </c>
+      <c r="B83" t="s">
+        <v>118</v>
+      </c>
+      <c r="C83" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>3</v>
+      </c>
+      <c r="B84" t="s">
+        <v>120</v>
+      </c>
+      <c r="C84" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>4</v>
+      </c>
+      <c r="B85" t="s">
+        <v>122</v>
+      </c>
+      <c r="C85" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>5</v>
+      </c>
+      <c r="B86" t="s">
+        <v>124</v>
+      </c>
+      <c r="C86" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>6</v>
+      </c>
+      <c r="B87" t="s">
+        <v>126</v>
+      </c>
+      <c r="C87" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>7</v>
+      </c>
+      <c r="B88" t="s">
+        <v>128</v>
+      </c>
+      <c r="C88" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>8</v>
+      </c>
+      <c r="B89" t="s">
+        <v>44</v>
+      </c>
+      <c r="C89" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>9</v>
+      </c>
+      <c r="B90" t="s">
+        <v>130</v>
+      </c>
+      <c r="C90" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>10</v>
+      </c>
+      <c r="B91" t="s">
+        <v>48</v>
+      </c>
+      <c r="C91" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>11</v>
+      </c>
+      <c r="B92" t="s">
+        <v>133</v>
+      </c>
+      <c r="C92" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C1" r:id="rId1" xr:uid="{4A3D876D-ACA3-458A-82CA-60884E016EB0}"/>
     <hyperlink ref="C31" r:id="rId2" xr:uid="{F96FD52C-C61F-4631-BD70-4A531C121E61}"/>
+    <hyperlink ref="C69" r:id="rId3" xr:uid="{ADD6660F-22F5-44FB-BB5C-36A1680EA95D}"/>
+    <hyperlink ref="C79" r:id="rId4" xr:uid="{B467E96D-6032-4179-B49D-A94428369E7D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
